--- a/assets/excel/Report DUK.xlsx
+++ b/assets/excel/Report DUK.xlsx
@@ -50,13 +50,13 @@
     <t>ket.</t>
   </si>
   <si>
-    <t>Abdul Latief Baedhowi/Palembang/1982-06-08</t>
+    <t>Abdul Latief Baedhowi//</t>
   </si>
   <si>
     <t>2012.12.01.002</t>
   </si>
   <si>
-    <t>/</t>
+    <t>Pengatur/II/D</t>
   </si>
   <si>
     <t>2009-11-01</t>

--- a/assets/excel/Report DUK.xlsx
+++ b/assets/excel/Report DUK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
   <si>
     <t>REPORT DUK</t>
   </si>
@@ -29,19 +29,13 @@
     <t>NIP</t>
   </si>
   <si>
-    <t>Pangkat GOL/Ruang</t>
+    <t>Jabatan</t>
   </si>
   <si>
     <t>TMT</t>
   </si>
   <si>
-    <t>Jabatan</t>
-  </si>
-  <si>
-    <t>MK GOL Tahun/Bulan</t>
-  </si>
-  <si>
-    <t>Pendidikan AKhir / Asal</t>
+    <t>Pendidikan Akhir / Asal</t>
   </si>
   <si>
     <t>Tahun Lulus</t>
@@ -56,28 +50,874 @@
     <t>2012.12.01.002</t>
   </si>
   <si>
+    <t>Direktur Operasional</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>SMA/SLTA N 2 Palolo</t>
+  </si>
+  <si>
+    <t>2001-03-14</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Ahmad Hanif//</t>
+  </si>
+  <si>
+    <t>2012.12.01.003</t>
+  </si>
+  <si>
+    <t>S1/Universitas Hatmoko</t>
+  </si>
+  <si>
+    <t>2011-06-21</t>
+  </si>
+  <si>
+    <t>Iwan Setiyawan//</t>
+  </si>
+  <si>
+    <t>2012.12.01.004</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
-    <t>2009-11-01</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>Direktur Operasional</t>
-  </si>
-  <si>
-    <t>SLTA N 2 Palolo/SMA</t>
-  </si>
-  <si>
-    <t>2001-03-14</t>
-  </si>
-  <si>
-    <t>2010-11-10</t>
+    <t>Tri Wardaningtyas//</t>
+  </si>
+  <si>
+    <t>2012.12.01.005</t>
+  </si>
+  <si>
+    <t>S1/UGM</t>
+  </si>
+  <si>
+    <t>1999-07-07</t>
+  </si>
+  <si>
+    <t>Sudarsono//</t>
+  </si>
+  <si>
+    <t>2012.12.01.006</t>
+  </si>
+  <si>
+    <t>2012-01-09</t>
+  </si>
+  <si>
+    <t>Tri Bekti Rianto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.008</t>
+  </si>
+  <si>
+    <t>Samiran//</t>
+  </si>
+  <si>
+    <t>2012.12.01.009</t>
+  </si>
+  <si>
+    <t>SMP/SLTP N 1</t>
+  </si>
+  <si>
+    <t>1966-07-14</t>
+  </si>
+  <si>
+    <t>Edy Rusmanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.010</t>
+  </si>
+  <si>
+    <t>SMK/SMK N 1</t>
+  </si>
+  <si>
+    <t>1998-01-13</t>
+  </si>
+  <si>
+    <t>Roni Slamet//</t>
+  </si>
+  <si>
+    <t>2012.12.01.011</t>
+  </si>
+  <si>
+    <t>D3/UIN</t>
+  </si>
+  <si>
+    <t>2010-02-02</t>
+  </si>
+  <si>
+    <t>Ihsanuddin//</t>
+  </si>
+  <si>
+    <t>2012.12.01.012</t>
+  </si>
+  <si>
+    <t>D3/UINA</t>
+  </si>
+  <si>
+    <t>2007-07-24</t>
+  </si>
+  <si>
+    <t>Sukirman//</t>
+  </si>
+  <si>
+    <t>2012.12.01.013</t>
+  </si>
+  <si>
+    <t>Bambang Gunartok//</t>
+  </si>
+  <si>
+    <t>2012.12.01.014</t>
+  </si>
+  <si>
+    <t>D3/Ujayana</t>
+  </si>
+  <si>
+    <t>2003-03-12</t>
+  </si>
+  <si>
+    <t>Rudi Riswanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.015</t>
+  </si>
+  <si>
+    <t>S1/Airlangga Satria</t>
+  </si>
+  <si>
+    <t>2014-03-12</t>
+  </si>
+  <si>
+    <t>Maryono//</t>
+  </si>
+  <si>
+    <t>2012.12.01.016</t>
+  </si>
+  <si>
+    <t>S1/Udayana</t>
+  </si>
+  <si>
+    <t>2011-03-16</t>
+  </si>
+  <si>
+    <t>Muryanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.017</t>
+  </si>
+  <si>
+    <t>SMA/SMA N 7 Bandung</t>
+  </si>
+  <si>
+    <t>1997-06-17</t>
+  </si>
+  <si>
+    <t>Heri Susanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.018</t>
+  </si>
+  <si>
+    <t>Bagus Widodo//</t>
+  </si>
+  <si>
+    <t>2012.12.01.019</t>
+  </si>
+  <si>
+    <t>Aristiyo Budi//</t>
+  </si>
+  <si>
+    <t>2012.12.01.021</t>
+  </si>
+  <si>
+    <t>Eni Watiningsih//</t>
+  </si>
+  <si>
+    <t>2012.12.01.022</t>
+  </si>
+  <si>
+    <t>Suharini//</t>
+  </si>
+  <si>
+    <t>2012.12.01.024</t>
+  </si>
+  <si>
+    <t>Sofani//</t>
+  </si>
+  <si>
+    <t>2012.12.01.025</t>
+  </si>
+  <si>
+    <t>Slamet Triyoga//</t>
+  </si>
+  <si>
+    <t>2012.12.01.029</t>
+  </si>
+  <si>
+    <t>Arise Siswanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.031</t>
+  </si>
+  <si>
+    <t>Heru Setiawan//</t>
+  </si>
+  <si>
+    <t>2012.12.02.032</t>
+  </si>
+  <si>
+    <t>Kanang Suhartanto//</t>
+  </si>
+  <si>
+    <t>2012.12.04.034</t>
+  </si>
+  <si>
+    <t>Agus Tugiyono//</t>
+  </si>
+  <si>
+    <t>2012.12.04.035</t>
+  </si>
+  <si>
+    <t>Agus Salim//</t>
+  </si>
+  <si>
+    <t>2012.12.04.036</t>
+  </si>
+  <si>
+    <t>Nur Muh Attabik//</t>
+  </si>
+  <si>
+    <t>2012.12.04.037</t>
+  </si>
+  <si>
+    <t>Ihsan Zulkarnain//</t>
+  </si>
+  <si>
+    <t>2012.12.04.038</t>
+  </si>
+  <si>
+    <t>Heru Susmanto//</t>
+  </si>
+  <si>
+    <t>2012.12.04.039</t>
+  </si>
+  <si>
+    <t>Suharyanto//</t>
+  </si>
+  <si>
+    <t>2012.12.05.041</t>
+  </si>
+  <si>
+    <t>Wisnu Ardi//</t>
+  </si>
+  <si>
+    <t>2012.12.05.042</t>
+  </si>
+  <si>
+    <t>Agung Frediyanto//</t>
+  </si>
+  <si>
+    <t>2012.12.05.043</t>
+  </si>
+  <si>
+    <t>Dedy Rahmad Bahtiyar//</t>
+  </si>
+  <si>
+    <t>2012.12.07.044</t>
+  </si>
+  <si>
+    <t>Andri Bayu Suryatno//</t>
+  </si>
+  <si>
+    <t>2012.12.07.045</t>
+  </si>
+  <si>
+    <t>Sulis Wahyu Hendratiningsih//</t>
+  </si>
+  <si>
+    <t>2012.12.09.046</t>
+  </si>
+  <si>
+    <t>Margantoro Suryo Atmojo//</t>
+  </si>
+  <si>
+    <t>2012.12.10.048</t>
+  </si>
+  <si>
+    <t>Sumarlan//</t>
+  </si>
+  <si>
+    <t>2012.12.10.049</t>
+  </si>
+  <si>
+    <t>Wahyu Yuniarto//</t>
+  </si>
+  <si>
+    <t>2012.12.11.050</t>
+  </si>
+  <si>
+    <t>Jumadi//</t>
+  </si>
+  <si>
+    <t>2012.12.11.051</t>
+  </si>
+  <si>
+    <t>Marsudi//</t>
+  </si>
+  <si>
+    <t>2012.12.11.052</t>
+  </si>
+  <si>
+    <t>Andika Barun//</t>
+  </si>
+  <si>
+    <t>2012.12.11.054</t>
+  </si>
+  <si>
+    <t>Ngatiman//</t>
+  </si>
+  <si>
+    <t>2012.13.02.058</t>
+  </si>
+  <si>
+    <t>Indra Wahyudi//</t>
+  </si>
+  <si>
+    <t>2012.13.02.059</t>
+  </si>
+  <si>
+    <t>M Indriyanto//</t>
+  </si>
+  <si>
+    <t>2012.13.03.061</t>
+  </si>
+  <si>
+    <t>Iwan Setiawan S Pt//</t>
+  </si>
+  <si>
+    <t>2012.13.07.064</t>
+  </si>
+  <si>
+    <t>Sinta Widayati//</t>
+  </si>
+  <si>
+    <t>2012.13.09.065</t>
+  </si>
+  <si>
+    <t>Intan Nurlita Anisa//</t>
+  </si>
+  <si>
+    <t>2012.13.09.066</t>
+  </si>
+  <si>
+    <t>Yudhi Dwi Arifianto//</t>
+  </si>
+  <si>
+    <t>2012.13.10.068</t>
+  </si>
+  <si>
+    <t>Maghfiroh//</t>
+  </si>
+  <si>
+    <t>2012.13.11.071</t>
+  </si>
+  <si>
+    <t>Bagus Wahyono//</t>
+  </si>
+  <si>
+    <t>2012.13.11.073</t>
+  </si>
+  <si>
+    <t>David Nois Perdana//</t>
+  </si>
+  <si>
+    <t>2012.13.11.074</t>
+  </si>
+  <si>
+    <t>Nasikhin//</t>
+  </si>
+  <si>
+    <t>2012.14.09.078</t>
+  </si>
+  <si>
+    <t>Ferri Kurniawan//</t>
+  </si>
+  <si>
+    <t>2012.14.09.079</t>
+  </si>
+  <si>
+    <t>Surojo//</t>
+  </si>
+  <si>
+    <t>2012.14.09.080</t>
+  </si>
+  <si>
+    <t>Sutarno//</t>
+  </si>
+  <si>
+    <t>2012.14.09.083</t>
+  </si>
+  <si>
+    <t>Nur Endah Setyawati//</t>
+  </si>
+  <si>
+    <t>2012.15.03.086</t>
+  </si>
+  <si>
+    <t>Isnan Arif Pambudi//</t>
+  </si>
+  <si>
+    <t>2012.15.05.087</t>
+  </si>
+  <si>
+    <t>Mustaqim//</t>
+  </si>
+  <si>
+    <t>2012.15.05.088</t>
+  </si>
+  <si>
+    <t>Miftah Mafazi//</t>
+  </si>
+  <si>
+    <t>2012.15.10.094</t>
+  </si>
+  <si>
+    <t>Harnoko//</t>
+  </si>
+  <si>
+    <t>2012.15.11.096</t>
+  </si>
+  <si>
+    <t>Nur Cholish//</t>
+  </si>
+  <si>
+    <t>2012.15.11.097</t>
+  </si>
+  <si>
+    <t>Gumawan Nurdhianto//</t>
+  </si>
+  <si>
+    <t>2012.15.12.099</t>
+  </si>
+  <si>
+    <t>Mirza Gunawan//</t>
+  </si>
+  <si>
+    <t>2012.15.12.100</t>
+  </si>
+  <si>
+    <t>Febri Pratama//</t>
+  </si>
+  <si>
+    <t>2012.15.12.101</t>
+  </si>
+  <si>
+    <t>Harlan Buyung Nurdhianto//</t>
+  </si>
+  <si>
+    <t>2012.15.12.103</t>
+  </si>
+  <si>
+    <t>Reza Ahimsa Hendrianno//</t>
+  </si>
+  <si>
+    <t>2012.15.12.106</t>
+  </si>
+  <si>
+    <t>Sarjono//</t>
+  </si>
+  <si>
+    <t>2012.16.01.107</t>
+  </si>
+  <si>
+    <t>Rubiyanto//</t>
+  </si>
+  <si>
+    <t>2012.16.01.108</t>
+  </si>
+  <si>
+    <t>Andika Beny Setyawan//</t>
+  </si>
+  <si>
+    <t>2012.16.03.112</t>
+  </si>
+  <si>
+    <t>Ariyanto//</t>
+  </si>
+  <si>
+    <t>2012.16.07.115</t>
+  </si>
+  <si>
+    <t>Muhammad Khoirul Anam//</t>
+  </si>
+  <si>
+    <t>2012.16.07.118</t>
+  </si>
+  <si>
+    <t>Anor Riza Rudianto//</t>
+  </si>
+  <si>
+    <t>2012.16.10.119</t>
+  </si>
+  <si>
+    <t>Gunawan//</t>
+  </si>
+  <si>
+    <t>2012.16.12.120</t>
+  </si>
+  <si>
+    <t>Maryadi//</t>
+  </si>
+  <si>
+    <t>2012.17.01.122</t>
+  </si>
+  <si>
+    <t>M Irfan Meyanto//</t>
+  </si>
+  <si>
+    <t>2012.17.01.123</t>
+  </si>
+  <si>
+    <t>Hasnan Habib Al Fajar//</t>
+  </si>
+  <si>
+    <t>2012.17.08.125</t>
+  </si>
+  <si>
+    <t>Haryanto//</t>
+  </si>
+  <si>
+    <t>2012.17.09.127</t>
+  </si>
+  <si>
+    <t>Karindra Gatya Arzenna//</t>
+  </si>
+  <si>
+    <t>2012.17.09.131</t>
+  </si>
+  <si>
+    <t>Juni Bantu Pamungkas//</t>
+  </si>
+  <si>
+    <t>2012.17.09.132</t>
+  </si>
+  <si>
+    <t>Ifan Dwi Sanusi//</t>
+  </si>
+  <si>
+    <t>2012.17.09.134</t>
+  </si>
+  <si>
+    <t>Gustam Barnafi//</t>
+  </si>
+  <si>
+    <t>2012.17.09.137</t>
+  </si>
+  <si>
+    <t>Tri Dal Dhikri//</t>
+  </si>
+  <si>
+    <t>2012.17.09.138</t>
+  </si>
+  <si>
+    <t>Muhammad Rafiq//</t>
+  </si>
+  <si>
+    <t>2012.17.11.142</t>
+  </si>
+  <si>
+    <t>Buyung Candra Bahari//</t>
+  </si>
+  <si>
+    <t>2012.17.11.143</t>
+  </si>
+  <si>
+    <t>Yusak Nugroho//</t>
+  </si>
+  <si>
+    <t>2012.17.11.144</t>
+  </si>
+  <si>
+    <t>Hanik Kastuni//</t>
+  </si>
+  <si>
+    <t>2012.18.02.145</t>
+  </si>
+  <si>
+    <t>Fenty Anindita Nurnafiah//</t>
+  </si>
+  <si>
+    <t>2012.18.02.146</t>
+  </si>
+  <si>
+    <t>Taufik Hidayat//</t>
+  </si>
+  <si>
+    <t>2012.18.05.148</t>
+  </si>
+  <si>
+    <t>Dwi Novi Casyanto//</t>
+  </si>
+  <si>
+    <t>2012.18.08.151</t>
+  </si>
+  <si>
+    <t>Khoirur Rokhimin//</t>
+  </si>
+  <si>
+    <t>2012.18.08.153</t>
+  </si>
+  <si>
+    <t>Muhammad Islakhuddin Rais //</t>
+  </si>
+  <si>
+    <t>2012.19.01.154</t>
+  </si>
+  <si>
+    <t>Buchori//</t>
+  </si>
+  <si>
+    <t>2012.19.01.156</t>
+  </si>
+  <si>
+    <t>Dita Yuliana//</t>
+  </si>
+  <si>
+    <t>2012.19.01.159</t>
+  </si>
+  <si>
+    <t>Ermalia Nur Hasyimi//</t>
+  </si>
+  <si>
+    <t>2012.19.01.160</t>
+  </si>
+  <si>
+    <t>Pardiman//</t>
+  </si>
+  <si>
+    <t>2012.20.01.161</t>
+  </si>
+  <si>
+    <t>Muhammad Misbakhudin//</t>
+  </si>
+  <si>
+    <t>2012.20.01.162</t>
+  </si>
+  <si>
+    <t>Doni Anggara Putra //</t>
+  </si>
+  <si>
+    <t>2012.20.01.163</t>
+  </si>
+  <si>
+    <t>Hermawan//</t>
+  </si>
+  <si>
+    <t>2012.20.02.000</t>
+  </si>
+  <si>
+    <t>YUSUF PURNAMA//</t>
+  </si>
+  <si>
+    <t>AKHMAD RIFAI//</t>
+  </si>
+  <si>
+    <t>BAGUS ISMAIL//</t>
+  </si>
+  <si>
+    <t>ABDUL ROCHMAN//</t>
+  </si>
+  <si>
+    <t>Jamiyati//</t>
+  </si>
+  <si>
+    <t>Febri Riyanti//</t>
+  </si>
+  <si>
+    <t>Rini Widyastuti//</t>
+  </si>
+  <si>
+    <t>Ery Safitri//</t>
+  </si>
+  <si>
+    <t>Dyah Ayu Pramesti//</t>
+  </si>
+  <si>
+    <t>Tri Mulatningsih//</t>
+  </si>
+  <si>
+    <t>Budi Lestari//</t>
+  </si>
+  <si>
+    <t>Emiyati//</t>
+  </si>
+  <si>
+    <t>Hanifah//</t>
+  </si>
+  <si>
+    <t>Eny Indriyati//</t>
+  </si>
+  <si>
+    <t>Devi Wulandari//</t>
+  </si>
+  <si>
+    <t>Zuniati Agnuril Sholikah//</t>
+  </si>
+  <si>
+    <t>Diah Ayu Novita Andari//</t>
+  </si>
+  <si>
+    <t>Putri Amalia Dewi//</t>
+  </si>
+  <si>
+    <t>Ninda Ayuni//</t>
+  </si>
+  <si>
+    <t>RIDWAN RAMADHAN//</t>
+  </si>
+  <si>
+    <t>arsyad//</t>
+  </si>
+  <si>
+    <t>meyd//</t>
+  </si>
+  <si>
+    <t>aldo//</t>
+  </si>
+  <si>
+    <t>fauzanj//</t>
+  </si>
+  <si>
+    <t>bone//</t>
+  </si>
+  <si>
+    <t>kesv//</t>
+  </si>
+  <si>
+    <t>donal//</t>
+  </si>
+  <si>
+    <t>kemi//</t>
+  </si>
+  <si>
+    <t>tata//</t>
+  </si>
+  <si>
+    <t>Rouf Rozikin//</t>
+  </si>
+  <si>
+    <t>GUNAWA//</t>
+  </si>
+  <si>
+    <t>EDO RIZKI P//</t>
+  </si>
+  <si>
+    <t>NOVRI ERWIN//</t>
+  </si>
+  <si>
+    <t>LELY TRI Y//</t>
+  </si>
+  <si>
+    <t>FATHONI HIDAYA//</t>
+  </si>
+  <si>
+    <t>MUKLIS SAPUTRA//</t>
+  </si>
+  <si>
+    <t>DANANG ANJAR H//</t>
+  </si>
+  <si>
+    <t>MUH FAIS ROSAD//</t>
+  </si>
+  <si>
+    <t>ADEN SABDA UTAM//</t>
+  </si>
+  <si>
+    <t>AHMAD AFIFUDIN//</t>
+  </si>
+  <si>
+    <t>AISYAH D S//</t>
+  </si>
+  <si>
+    <t>CITRA A N F//</t>
+  </si>
+  <si>
+    <t>CLARA F//</t>
+  </si>
+  <si>
+    <t>NAUFAL I//</t>
+  </si>
+  <si>
+    <t>NASMAL A//</t>
+  </si>
+  <si>
+    <t>Ihsan Firdaus//</t>
+  </si>
+  <si>
+    <t>Administrasi Personalia</t>
+  </si>
+  <si>
+    <t>Arimbi Himsa L//</t>
+  </si>
+  <si>
+    <t>Luki Meiramah//</t>
+  </si>
+  <si>
+    <t>nabilla elma L//</t>
+  </si>
+  <si>
+    <t>Dai Yang Shidiq//</t>
+  </si>
+  <si>
+    <t>M Yanuar Nurez//</t>
+  </si>
+  <si>
+    <t>Eri Afriadi//</t>
+  </si>
+  <si>
+    <t>Jumawan//</t>
+  </si>
+  <si>
+    <t>M Ayrton Sena//</t>
+  </si>
+  <si>
+    <t>Sirullah Amand//</t>
+  </si>
+  <si>
+    <t>Nuryanto//</t>
+  </si>
+  <si>
+    <t>Fuad Muhammad H//</t>
+  </si>
+  <si>
+    <t>Nasis Firman//</t>
+  </si>
+  <si>
+    <t>Septian Dhaniar//</t>
+  </si>
+  <si>
+    <t>M  Hasan Nur//</t>
+  </si>
+  <si>
+    <t>Ariyanti Isnaii//</t>
+  </si>
+  <si>
+    <t>Lintang Fasha//</t>
+  </si>
+  <si>
+    <t>Fani Adiati//</t>
+  </si>
+  <si>
+    <t>Pradita Ferani//</t>
+  </si>
+  <si>
+    <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
+  </si>
+  <si>
+    <t>ratnasari/Darit/2001-08-09</t>
   </si>
 </sst>
 </file>
@@ -413,7 +1253,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +1261,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -446,95 +1286,3272 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>2022</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>2022</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103">
+        <v>1000</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104">
+        <v>1001</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105">
+        <v>1002</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106">
+        <v>1003</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107">
+        <v>2000</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108">
+        <v>2001</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109">
+        <v>2002</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110">
+        <v>2003</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111">
+        <v>2004</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111"/>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112">
+        <v>2005</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113">
+        <v>2006</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114">
+        <v>2007</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115">
+        <v>2008</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116">
+        <v>2009</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117">
+        <v>2010</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118">
+        <v>2011</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119">
+        <v>2012</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120">
+        <v>2013</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121">
+        <v>2014</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122">
+        <v>3000</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
+        <v>271</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>272</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
+        <v>276</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148" t="s">
+        <v>280</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>281</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
+        <v>282</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150"/>
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>283</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>284</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152"/>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>285</v>
+      </c>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153"/>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154" t="s">
+        <v>286</v>
+      </c>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154"/>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>287</v>
+      </c>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156"/>
+      <c r="H156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>289</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157"/>
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158"/>
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>291</v>
+      </c>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159"/>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160" t="s">
+        <v>292</v>
+      </c>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160"/>
+      <c r="H160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>293</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161"/>
+      <c r="H161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>294</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162"/>
+      <c r="H162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>295</v>
+      </c>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163"/>
+      <c r="H163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
+        <v>296</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164"/>
+      <c r="H164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165"/>
+      <c r="H165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166"/>
+      <c r="H166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" t="s">
+        <v>298</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167"/>
+      <c r="H167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
+        <v>299</v>
+      </c>
+      <c r="C168">
+        <v>123</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168"/>
+      <c r="H168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>300</v>
+      </c>
+      <c r="C169">
+        <v>1234</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169"/>
+      <c r="H169" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report DUK.xlsx
+++ b/assets/excel/Report DUK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>REPORT DUK</t>
   </si>
@@ -44,7 +44,7 @@
     <t>ket.</t>
   </si>
   <si>
-    <t>Abdul Latief Baedhowi/Palembang/1982-06-08</t>
+    <t>Abdul Latief Baedhowi//</t>
   </si>
   <si>
     <t>2012.12.01.002</t>
@@ -83,6 +83,9 @@
     <t>2012.12.01.004</t>
   </si>
   <si>
+    <t>Direktur Utama</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
@@ -912,12 +915,6 @@
   </si>
   <si>
     <t>Pradita Ferani//</t>
-  </si>
-  <si>
-    <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
-  </si>
-  <si>
-    <t>ratnasari/Darit/2001-08-09</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1250,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,10 +1347,14 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
@@ -1365,18 +1366,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1387,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1398,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1409,15 +1410,15 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -1429,18 +1430,18 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -1451,18 +1452,18 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1473,18 +1474,18 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1495,18 +1496,18 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1517,15 +1518,15 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
@@ -1537,18 +1538,18 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1559,18 +1560,18 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1581,18 +1582,18 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1603,18 +1604,18 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -1625,15 +1626,15 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
@@ -1645,15 +1646,15 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
@@ -1665,15 +1666,15 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
@@ -1685,15 +1686,15 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
@@ -1705,15 +1706,15 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
@@ -1725,15 +1726,15 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
@@ -1745,15 +1746,15 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
@@ -1765,15 +1766,15 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
@@ -1785,15 +1786,15 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
@@ -1805,15 +1806,15 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
@@ -1825,15 +1826,15 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
@@ -1845,15 +1846,15 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
@@ -1865,15 +1866,15 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -1885,15 +1886,15 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
@@ -1905,15 +1906,15 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
@@ -1925,15 +1926,15 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
@@ -1945,15 +1946,15 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
@@ -1965,15 +1966,15 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
@@ -1985,15 +1986,15 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
@@ -2005,15 +2006,15 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
@@ -2025,15 +2026,15 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
@@ -2045,15 +2046,15 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
@@ -2065,15 +2066,15 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
@@ -2085,15 +2086,15 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
@@ -2105,15 +2106,15 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
@@ -2125,15 +2126,15 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
@@ -2145,15 +2146,15 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
@@ -2165,15 +2166,15 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
@@ -2185,15 +2186,15 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47"/>
       <c r="H47" t="s">
@@ -2205,15 +2206,15 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
@@ -2225,15 +2226,15 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
@@ -2245,15 +2246,15 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50"/>
       <c r="H50" t="s">
@@ -2265,15 +2266,15 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51"/>
       <c r="H51" t="s">
@@ -2285,15 +2286,15 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52"/>
       <c r="H52" t="s">
@@ -2305,15 +2306,15 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G53"/>
       <c r="H53" t="s">
@@ -2325,15 +2326,15 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="s">
@@ -2345,15 +2346,15 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
@@ -2365,15 +2366,15 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
@@ -2385,15 +2386,15 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
@@ -2405,15 +2406,15 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
@@ -2425,15 +2426,15 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
@@ -2445,15 +2446,15 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
@@ -2465,15 +2466,15 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
@@ -2485,15 +2486,15 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
@@ -2505,15 +2506,15 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
@@ -2525,15 +2526,15 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
@@ -2545,15 +2546,15 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
@@ -2565,15 +2566,15 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
@@ -2585,15 +2586,15 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
@@ -2605,15 +2606,15 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G68"/>
       <c r="H68" t="s">
@@ -2625,15 +2626,15 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
@@ -2645,15 +2646,15 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
@@ -2665,15 +2666,15 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
@@ -2685,15 +2686,15 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
@@ -2705,15 +2706,15 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
@@ -2725,15 +2726,15 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
@@ -2745,15 +2746,15 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
@@ -2765,15 +2766,15 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
@@ -2785,15 +2786,15 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
@@ -2805,15 +2806,15 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G78"/>
       <c r="H78" t="s">
@@ -2825,15 +2826,15 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
@@ -2845,15 +2846,15 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
@@ -2865,15 +2866,15 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="s">
@@ -2885,15 +2886,15 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
@@ -2905,15 +2906,15 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
@@ -2925,15 +2926,15 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
@@ -2945,15 +2946,15 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
@@ -2965,15 +2966,15 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -2985,15 +2986,15 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
@@ -3005,15 +3006,15 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="s">
@@ -3025,15 +3026,15 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
@@ -3045,15 +3046,15 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="s">
@@ -3065,15 +3066,15 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
@@ -3085,15 +3086,15 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
@@ -3105,15 +3106,15 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
@@ -3125,15 +3126,15 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
@@ -3145,15 +3146,15 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
@@ -3165,15 +3166,15 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="s">
@@ -3185,15 +3186,15 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
@@ -3205,15 +3206,15 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G98"/>
       <c r="H98" t="s">
@@ -3225,15 +3226,15 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
@@ -3245,15 +3246,15 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="s">
@@ -3265,15 +3266,15 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G101"/>
       <c r="H101" t="s">
@@ -3285,15 +3286,15 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G102"/>
       <c r="H102" t="s">
@@ -3305,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103">
         <v>1000</v>
@@ -3313,7 +3314,7 @@
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G103"/>
       <c r="H103" t="s">
@@ -3325,7 +3326,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C104">
         <v>1001</v>
@@ -3333,7 +3334,7 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G104"/>
       <c r="H104" t="s">
@@ -3345,7 +3346,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C105">
         <v>1002</v>
@@ -3353,7 +3354,7 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G105"/>
       <c r="H105" t="s">
@@ -3365,7 +3366,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C106">
         <v>1003</v>
@@ -3373,7 +3374,7 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G106"/>
       <c r="H106" t="s">
@@ -3385,7 +3386,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C107">
         <v>2000</v>
@@ -3393,7 +3394,7 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G107"/>
       <c r="H107" t="s">
@@ -3405,7 +3406,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108">
         <v>2001</v>
@@ -3413,7 +3414,7 @@
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G108"/>
       <c r="H108" t="s">
@@ -3425,7 +3426,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -3433,7 +3434,7 @@
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G109"/>
       <c r="H109" t="s">
@@ -3445,7 +3446,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C110">
         <v>2003</v>
@@ -3453,7 +3454,7 @@
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G110"/>
       <c r="H110" t="s">
@@ -3465,7 +3466,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C111">
         <v>2004</v>
@@ -3473,7 +3474,7 @@
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G111"/>
       <c r="H111" t="s">
@@ -3485,7 +3486,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C112">
         <v>2005</v>
@@ -3493,7 +3494,7 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G112"/>
       <c r="H112" t="s">
@@ -3505,7 +3506,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C113">
         <v>2006</v>
@@ -3513,7 +3514,7 @@
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G113"/>
       <c r="H113" t="s">
@@ -3525,7 +3526,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C114">
         <v>2007</v>
@@ -3533,7 +3534,7 @@
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G114"/>
       <c r="H114" t="s">
@@ -3545,7 +3546,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C115">
         <v>2008</v>
@@ -3553,7 +3554,7 @@
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G115"/>
       <c r="H115" t="s">
@@ -3565,7 +3566,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C116">
         <v>2009</v>
@@ -3573,7 +3574,7 @@
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G116"/>
       <c r="H116" t="s">
@@ -3585,7 +3586,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C117">
         <v>2010</v>
@@ -3593,7 +3594,7 @@
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G117"/>
       <c r="H117" t="s">
@@ -3605,7 +3606,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C118">
         <v>2011</v>
@@ -3613,7 +3614,7 @@
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G118"/>
       <c r="H118" t="s">
@@ -3625,7 +3626,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -3633,7 +3634,7 @@
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G119"/>
       <c r="H119" t="s">
@@ -3645,7 +3646,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -3653,7 +3654,7 @@
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G120"/>
       <c r="H120" t="s">
@@ -3665,7 +3666,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -3673,7 +3674,7 @@
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G121"/>
       <c r="H121" t="s">
@@ -3685,7 +3686,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C122">
         <v>3000</v>
@@ -3693,7 +3694,7 @@
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G122"/>
       <c r="H122" t="s">
@@ -3705,13 +3706,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G123"/>
       <c r="H123" t="s">
@@ -3723,13 +3724,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G124"/>
       <c r="H124" t="s">
@@ -3741,13 +3742,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G125"/>
       <c r="H125" t="s">
@@ -3759,13 +3760,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G126"/>
       <c r="H126" t="s">
@@ -3777,13 +3778,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G127"/>
       <c r="H127" t="s">
@@ -3795,13 +3796,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G128"/>
       <c r="H128" t="s">
@@ -3813,13 +3814,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G129"/>
       <c r="H129" t="s">
@@ -3831,13 +3832,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G130"/>
       <c r="H130" t="s">
@@ -3849,13 +3850,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G131"/>
       <c r="H131" t="s">
@@ -3867,13 +3868,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G132"/>
       <c r="H132" t="s">
@@ -3885,13 +3886,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G133"/>
       <c r="H133" t="s">
@@ -3903,13 +3904,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G134"/>
       <c r="H134" t="s">
@@ -3921,13 +3922,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G135"/>
       <c r="H135" t="s">
@@ -3939,13 +3940,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G136"/>
       <c r="H136" t="s">
@@ -3957,13 +3958,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G137"/>
       <c r="H137" t="s">
@@ -3975,13 +3976,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G138"/>
       <c r="H138" t="s">
@@ -3993,13 +3994,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
       <c r="F139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G139"/>
       <c r="H139" t="s">
@@ -4011,13 +4012,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G140"/>
       <c r="H140" t="s">
@@ -4029,13 +4030,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G141"/>
       <c r="H141" t="s">
@@ -4047,13 +4048,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G142"/>
       <c r="H142" t="s">
@@ -4065,13 +4066,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G143"/>
       <c r="H143" t="s">
@@ -4083,13 +4084,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G144"/>
       <c r="H144" t="s">
@@ -4101,13 +4102,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G145"/>
       <c r="H145" t="s">
@@ -4119,13 +4120,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G146"/>
       <c r="H146" t="s">
@@ -4137,13 +4138,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G147"/>
       <c r="H147" t="s">
@@ -4155,17 +4156,17 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G148"/>
       <c r="H148" t="s">
@@ -4177,13 +4178,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G149"/>
       <c r="H149" t="s">
@@ -4195,13 +4196,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="s">
@@ -4213,13 +4214,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G151"/>
       <c r="H151" t="s">
@@ -4231,13 +4232,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
@@ -4249,13 +4250,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
@@ -4267,13 +4268,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G154"/>
       <c r="H154" t="s">
@@ -4285,13 +4286,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G155"/>
       <c r="H155" t="s">
@@ -4303,13 +4304,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
       <c r="F156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G156"/>
       <c r="H156" t="s">
@@ -4321,13 +4322,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G157"/>
       <c r="H157" t="s">
@@ -4339,13 +4340,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G158"/>
       <c r="H158" t="s">
@@ -4357,13 +4358,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G159"/>
       <c r="H159" t="s">
@@ -4375,13 +4376,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G160"/>
       <c r="H160" t="s">
@@ -4393,13 +4394,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G161"/>
       <c r="H161" t="s">
@@ -4411,13 +4412,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G162"/>
       <c r="H162" t="s">
@@ -4429,13 +4430,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G163"/>
       <c r="H163" t="s">
@@ -4447,13 +4448,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G164"/>
       <c r="H164" t="s">
@@ -4465,13 +4466,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
       <c r="F165" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G165"/>
       <c r="H165" t="s">
@@ -4483,13 +4484,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G166"/>
       <c r="H166" t="s">
@@ -4501,56 +4502,16 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G167"/>
       <c r="H167" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168">
-        <v>165</v>
-      </c>
-      <c r="B168" t="s">
-        <v>299</v>
-      </c>
-      <c r="C168">
-        <v>123</v>
-      </c>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168"/>
-      <c r="H168" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>300</v>
-      </c>
-      <c r="C169">
-        <v>1234</v>
-      </c>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169"/>
-      <c r="H169" t="s">
         <v>15</v>
       </c>
     </row>

--- a/assets/excel/Report DUK.xlsx
+++ b/assets/excel/Report DUK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>REPORT DUK</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>2012.12.01.003</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
   <si>
     <t>S1/Universitas Hatmoko</t>
@@ -1328,13 +1331,17 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1345,15 +1352,15 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
@@ -1365,18 +1372,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1387,18 +1394,18 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1409,15 +1416,15 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -1429,18 +1436,18 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -1451,18 +1458,18 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1473,18 +1480,18 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1495,18 +1502,18 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1517,15 +1524,15 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
@@ -1537,18 +1544,18 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1559,18 +1566,18 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1581,18 +1588,18 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1603,18 +1610,18 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -1625,15 +1632,15 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
@@ -1645,15 +1652,15 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
@@ -1665,15 +1672,15 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
@@ -1685,15 +1692,15 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
@@ -1705,15 +1712,15 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
@@ -1725,15 +1732,15 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
@@ -1745,15 +1752,15 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
@@ -1765,15 +1772,15 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
@@ -1785,15 +1792,15 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
@@ -1805,15 +1812,15 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
@@ -1825,15 +1832,15 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
@@ -1845,15 +1852,15 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
@@ -1865,15 +1872,15 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -1885,15 +1892,15 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
@@ -1905,15 +1912,15 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
@@ -1925,15 +1932,15 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
@@ -1945,15 +1952,15 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
@@ -1965,15 +1972,15 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
@@ -1985,15 +1992,15 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
@@ -2005,15 +2012,15 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
@@ -2025,15 +2032,15 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
@@ -2045,15 +2052,15 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
@@ -2065,15 +2072,15 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
@@ -2085,15 +2092,15 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
@@ -2105,15 +2112,15 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
@@ -2125,15 +2132,15 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
@@ -2145,15 +2152,15 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
@@ -2165,15 +2172,15 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
@@ -2185,15 +2192,15 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47"/>
       <c r="H47" t="s">
@@ -2205,15 +2212,15 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
@@ -2225,15 +2232,15 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
@@ -2245,15 +2252,15 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50"/>
       <c r="H50" t="s">
@@ -2265,15 +2272,15 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51"/>
       <c r="H51" t="s">
@@ -2285,15 +2292,15 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52"/>
       <c r="H52" t="s">
@@ -2305,15 +2312,15 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G53"/>
       <c r="H53" t="s">
@@ -2325,15 +2332,15 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="s">
@@ -2345,15 +2352,15 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
@@ -2365,15 +2372,15 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
@@ -2385,15 +2392,15 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
@@ -2405,15 +2412,15 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
@@ -2425,15 +2432,15 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
@@ -2445,15 +2452,15 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
@@ -2465,15 +2472,15 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
@@ -2485,15 +2492,15 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
@@ -2505,15 +2512,15 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
@@ -2525,15 +2532,15 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
@@ -2545,15 +2552,15 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
@@ -2565,15 +2572,15 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
@@ -2585,15 +2592,15 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
@@ -2605,15 +2612,15 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G68"/>
       <c r="H68" t="s">
@@ -2625,15 +2632,15 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
@@ -2645,15 +2652,15 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
@@ -2665,15 +2672,15 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
@@ -2685,15 +2692,15 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
@@ -2705,15 +2712,15 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
@@ -2725,15 +2732,15 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
@@ -2745,15 +2752,15 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
@@ -2765,15 +2772,15 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
@@ -2785,15 +2792,15 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
@@ -2805,15 +2812,15 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G78"/>
       <c r="H78" t="s">
@@ -2825,15 +2832,15 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
@@ -2845,15 +2852,15 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
@@ -2865,15 +2872,15 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="s">
@@ -2885,15 +2892,15 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
@@ -2905,15 +2912,15 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
@@ -2925,15 +2932,15 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
@@ -2945,15 +2952,15 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
@@ -2965,15 +2972,15 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -2985,15 +2992,15 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
@@ -3005,15 +3012,15 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="s">
@@ -3025,15 +3032,15 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
@@ -3045,15 +3052,15 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="s">
@@ -3065,15 +3072,15 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
@@ -3085,15 +3092,15 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
@@ -3105,15 +3112,15 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
@@ -3125,15 +3132,15 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
@@ -3145,15 +3152,15 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
@@ -3165,15 +3172,15 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="s">
@@ -3185,15 +3192,15 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
@@ -3205,15 +3212,15 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G98"/>
       <c r="H98" t="s">
@@ -3225,15 +3232,15 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
@@ -3245,15 +3252,15 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="s">
@@ -3265,15 +3272,15 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G101"/>
       <c r="H101" t="s">
@@ -3285,15 +3292,15 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G102"/>
       <c r="H102" t="s">
@@ -3305,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103">
         <v>1000</v>
@@ -3313,7 +3320,7 @@
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G103"/>
       <c r="H103" t="s">
@@ -3325,7 +3332,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C104">
         <v>1001</v>
@@ -3333,7 +3340,7 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G104"/>
       <c r="H104" t="s">
@@ -3345,7 +3352,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C105">
         <v>1002</v>
@@ -3353,7 +3360,7 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G105"/>
       <c r="H105" t="s">
@@ -3365,7 +3372,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C106">
         <v>1003</v>
@@ -3373,7 +3380,7 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G106"/>
       <c r="H106" t="s">
@@ -3385,7 +3392,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C107">
         <v>2000</v>
@@ -3393,7 +3400,7 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G107"/>
       <c r="H107" t="s">
@@ -3405,7 +3412,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108">
         <v>2001</v>
@@ -3413,7 +3420,7 @@
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G108"/>
       <c r="H108" t="s">
@@ -3425,7 +3432,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -3433,7 +3440,7 @@
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G109"/>
       <c r="H109" t="s">
@@ -3445,7 +3452,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C110">
         <v>2003</v>
@@ -3453,7 +3460,7 @@
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G110"/>
       <c r="H110" t="s">
@@ -3465,7 +3472,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C111">
         <v>2004</v>
@@ -3473,7 +3480,7 @@
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G111"/>
       <c r="H111" t="s">
@@ -3485,7 +3492,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C112">
         <v>2005</v>
@@ -3493,7 +3500,7 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G112"/>
       <c r="H112" t="s">
@@ -3505,7 +3512,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C113">
         <v>2006</v>
@@ -3513,7 +3520,7 @@
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G113"/>
       <c r="H113" t="s">
@@ -3525,7 +3532,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C114">
         <v>2007</v>
@@ -3533,7 +3540,7 @@
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G114"/>
       <c r="H114" t="s">
@@ -3545,7 +3552,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C115">
         <v>2008</v>
@@ -3553,7 +3560,7 @@
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G115"/>
       <c r="H115" t="s">
@@ -3565,7 +3572,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C116">
         <v>2009</v>
@@ -3573,7 +3580,7 @@
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G116"/>
       <c r="H116" t="s">
@@ -3585,7 +3592,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C117">
         <v>2010</v>
@@ -3593,7 +3600,7 @@
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G117"/>
       <c r="H117" t="s">
@@ -3605,7 +3612,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C118">
         <v>2011</v>
@@ -3613,7 +3620,7 @@
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G118"/>
       <c r="H118" t="s">
@@ -3625,7 +3632,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -3633,7 +3640,7 @@
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G119"/>
       <c r="H119" t="s">
@@ -3645,7 +3652,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -3653,7 +3660,7 @@
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G120"/>
       <c r="H120" t="s">
@@ -3665,7 +3672,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -3673,7 +3680,7 @@
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G121"/>
       <c r="H121" t="s">
@@ -3685,7 +3692,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C122">
         <v>3000</v>
@@ -3693,7 +3700,7 @@
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G122"/>
       <c r="H122" t="s">
@@ -3705,13 +3712,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G123"/>
       <c r="H123" t="s">
@@ -3723,13 +3730,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G124"/>
       <c r="H124" t="s">
@@ -3741,13 +3748,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G125"/>
       <c r="H125" t="s">
@@ -3759,13 +3766,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G126"/>
       <c r="H126" t="s">
@@ -3777,13 +3784,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G127"/>
       <c r="H127" t="s">
@@ -3795,13 +3802,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G128"/>
       <c r="H128" t="s">
@@ -3813,13 +3820,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G129"/>
       <c r="H129" t="s">
@@ -3831,13 +3838,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G130"/>
       <c r="H130" t="s">
@@ -3849,13 +3856,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G131"/>
       <c r="H131" t="s">
@@ -3867,13 +3874,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G132"/>
       <c r="H132" t="s">
@@ -3885,13 +3892,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G133"/>
       <c r="H133" t="s">
@@ -3903,13 +3910,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G134"/>
       <c r="H134" t="s">
@@ -3921,13 +3928,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G135"/>
       <c r="H135" t="s">
@@ -3939,13 +3946,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G136"/>
       <c r="H136" t="s">
@@ -3957,13 +3964,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G137"/>
       <c r="H137" t="s">
@@ -3975,13 +3982,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G138"/>
       <c r="H138" t="s">
@@ -3993,13 +4000,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
       <c r="F139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G139"/>
       <c r="H139" t="s">
@@ -4011,13 +4018,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G140"/>
       <c r="H140" t="s">
@@ -4029,13 +4036,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G141"/>
       <c r="H141" t="s">
@@ -4047,13 +4054,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G142"/>
       <c r="H142" t="s">
@@ -4065,13 +4072,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G143"/>
       <c r="H143" t="s">
@@ -4083,13 +4090,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G144"/>
       <c r="H144" t="s">
@@ -4101,13 +4108,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G145"/>
       <c r="H145" t="s">
@@ -4119,13 +4126,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G146"/>
       <c r="H146" t="s">
@@ -4137,13 +4144,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G147"/>
       <c r="H147" t="s">
@@ -4155,17 +4162,17 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G148"/>
       <c r="H148" t="s">
@@ -4177,13 +4184,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G149"/>
       <c r="H149" t="s">
@@ -4195,13 +4202,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="s">
@@ -4213,13 +4220,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G151"/>
       <c r="H151" t="s">
@@ -4231,13 +4238,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
@@ -4249,13 +4256,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
@@ -4267,13 +4274,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G154"/>
       <c r="H154" t="s">
@@ -4285,13 +4292,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G155"/>
       <c r="H155" t="s">
@@ -4303,13 +4310,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
       <c r="F156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G156"/>
       <c r="H156" t="s">
@@ -4321,13 +4328,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G157"/>
       <c r="H157" t="s">
@@ -4339,13 +4346,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G158"/>
       <c r="H158" t="s">
@@ -4357,13 +4364,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G159"/>
       <c r="H159" t="s">
@@ -4375,13 +4382,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G160"/>
       <c r="H160" t="s">
@@ -4393,13 +4400,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G161"/>
       <c r="H161" t="s">
@@ -4411,13 +4418,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G162"/>
       <c r="H162" t="s">
@@ -4429,13 +4436,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G163"/>
       <c r="H163" t="s">
@@ -4447,13 +4454,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G164"/>
       <c r="H164" t="s">
@@ -4465,13 +4472,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
       <c r="F165" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G165"/>
       <c r="H165" t="s">
@@ -4483,13 +4490,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G166"/>
       <c r="H166" t="s">
@@ -4501,13 +4508,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G167"/>
       <c r="H167" t="s">
@@ -4519,7 +4526,7 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C168">
         <v>123</v>
@@ -4527,7 +4534,7 @@
       <c r="D168"/>
       <c r="E168"/>
       <c r="F168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G168"/>
       <c r="H168" t="s">
@@ -4539,7 +4546,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C169">
         <v>1234</v>
@@ -4547,7 +4554,7 @@
       <c r="D169"/>
       <c r="E169"/>
       <c r="F169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G169"/>
       <c r="H169" t="s">

--- a/assets/excel/Report DUK.xlsx
+++ b/assets/excel/Report DUK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>REPORT DUK</t>
   </si>
@@ -44,7 +44,7 @@
     <t>ket.</t>
   </si>
   <si>
-    <t>Abdul Latief Baedhowi/Palembang/1982-06-08</t>
+    <t>Abdul Latief Baedhowi//</t>
   </si>
   <si>
     <t>2012.12.01.002</t>
@@ -56,10 +56,10 @@
     <t>0000-00-00</t>
   </si>
   <si>
-    <t>SMA/SLTA N 2 Palolo</t>
-  </si>
-  <si>
-    <t>2001-03-14</t>
+    <t>S1/Universitas Ahmad Dahlan</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
   </si>
   <si>
     <t>Aktif</t>
@@ -71,51 +71,57 @@
     <t>2012.12.01.003</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>S2/Universitas Hatmoko</t>
+  </si>
+  <si>
+    <t>2011-06-21</t>
+  </si>
+  <si>
+    <t>Iwan Setiyawan/Bantul/2022-06-06</t>
+  </si>
+  <si>
+    <t>2012.12.01.004</t>
+  </si>
+  <si>
+    <t>S1/UAD</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>Tri Wardaningtyas//</t>
+  </si>
+  <si>
+    <t>2012.12.01.005</t>
+  </si>
+  <si>
+    <t>S1/UGM</t>
+  </si>
+  <si>
+    <t>1999-07-07</t>
+  </si>
+  <si>
+    <t>Sudarsono//</t>
+  </si>
+  <si>
+    <t>2012.12.01.006</t>
   </si>
   <si>
     <t>S1/Universitas Hatmoko</t>
   </si>
   <si>
-    <t>2011-06-21</t>
-  </si>
-  <si>
-    <t>Iwan Setiyawan//</t>
-  </si>
-  <si>
-    <t>2012.12.01.004</t>
+    <t>2012-01-09</t>
+  </si>
+  <si>
+    <t>Tri Bekti Rianto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.008</t>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>Tri Wardaningtyas//</t>
-  </si>
-  <si>
-    <t>2012.12.01.005</t>
-  </si>
-  <si>
-    <t>S1/UGM</t>
-  </si>
-  <si>
-    <t>1999-07-07</t>
-  </si>
-  <si>
-    <t>Sudarsono//</t>
-  </si>
-  <si>
-    <t>2012.12.01.006</t>
-  </si>
-  <si>
-    <t>2012-01-09</t>
-  </si>
-  <si>
-    <t>Tri Bekti Rianto//</t>
-  </si>
-  <si>
-    <t>2012.12.01.008</t>
-  </si>
-  <si>
     <t>Samiran//</t>
   </si>
   <si>
@@ -146,7 +152,7 @@
     <t>2012.12.01.011</t>
   </si>
   <si>
-    <t>D3/UIN</t>
+    <t>DIII/UIN</t>
   </si>
   <si>
     <t>2010-02-02</t>
@@ -158,7 +164,7 @@
     <t>2012.12.01.012</t>
   </si>
   <si>
-    <t>D3/UINA</t>
+    <t>DIII/UINA</t>
   </si>
   <si>
     <t>2007-07-24</t>
@@ -176,7 +182,7 @@
     <t>2012.12.01.014</t>
   </si>
   <si>
-    <t>D3/Ujayana</t>
+    <t>DIII/Ujayana</t>
   </si>
   <si>
     <t>2003-03-12</t>
@@ -230,6 +236,12 @@
     <t>2012.12.01.019</t>
   </si>
   <si>
+    <t>DIII/UNY</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
     <t>Aristiyo Budi//</t>
   </si>
   <si>
@@ -296,6 +308,9 @@
     <t>2012.12.04.037</t>
   </si>
   <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
     <t>Ihsan Zulkarnain//</t>
   </si>
   <si>
@@ -918,6 +933,12 @@
   </si>
   <si>
     <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
   </si>
   <si>
     <t>ratnasari/Darit/2001-08-09</t>
@@ -1331,17 +1352,13 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1352,17 +1369,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6"/>
       <c r="H6" t="s">
         <v>15</v>
       </c>
@@ -1402,10 +1421,10 @@
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1416,15 +1435,15 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -1436,18 +1455,18 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -1458,18 +1477,18 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1480,18 +1499,18 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1502,18 +1521,18 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1524,15 +1543,15 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
@@ -1544,18 +1563,18 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1566,18 +1585,18 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1588,18 +1607,18 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1610,18 +1629,18 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -1632,15 +1651,15 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
@@ -1652,17 +1671,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20"/>
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
@@ -1672,15 +1693,15 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
@@ -1692,15 +1713,15 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
@@ -1712,15 +1733,15 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
@@ -1732,15 +1753,15 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
@@ -1752,15 +1773,15 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
@@ -1772,15 +1793,15 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
@@ -1792,15 +1813,15 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
@@ -1812,15 +1833,15 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
@@ -1832,15 +1853,15 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
@@ -1852,15 +1873,15 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
@@ -1872,17 +1893,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31"/>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
@@ -1892,15 +1915,15 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
@@ -1912,15 +1935,15 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
@@ -1932,15 +1955,15 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
@@ -1952,15 +1975,15 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
@@ -1972,15 +1995,15 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
@@ -1992,15 +2015,15 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
@@ -2012,15 +2035,15 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
@@ -2032,15 +2055,15 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
@@ -2052,15 +2075,15 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
@@ -2072,15 +2095,15 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
@@ -2092,15 +2115,15 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
@@ -2112,15 +2135,15 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
@@ -2132,15 +2155,15 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
@@ -2152,15 +2175,15 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
@@ -2172,15 +2195,15 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
@@ -2192,15 +2215,15 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G47"/>
       <c r="H47" t="s">
@@ -2212,15 +2235,15 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
@@ -2232,15 +2255,15 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
@@ -2252,15 +2275,15 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G50"/>
       <c r="H50" t="s">
@@ -2272,15 +2295,15 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G51"/>
       <c r="H51" t="s">
@@ -2292,15 +2315,15 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G52"/>
       <c r="H52" t="s">
@@ -2312,15 +2335,15 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G53"/>
       <c r="H53" t="s">
@@ -2332,15 +2355,15 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="s">
@@ -2352,15 +2375,15 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
@@ -2372,15 +2395,15 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
@@ -2392,15 +2415,15 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
@@ -2412,15 +2435,15 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
@@ -2432,15 +2455,15 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
@@ -2452,15 +2475,15 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
@@ -2472,15 +2495,15 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
@@ -2492,15 +2515,15 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
@@ -2512,15 +2535,15 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
@@ -2532,15 +2555,15 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
@@ -2552,15 +2575,15 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
@@ -2572,15 +2595,15 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
@@ -2592,15 +2615,15 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
@@ -2612,15 +2635,15 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G68"/>
       <c r="H68" t="s">
@@ -2632,15 +2655,15 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
@@ -2652,15 +2675,15 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
@@ -2672,15 +2695,15 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
@@ -2692,15 +2715,15 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
@@ -2712,15 +2735,15 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
@@ -2732,15 +2755,15 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
@@ -2752,15 +2775,15 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
@@ -2772,15 +2795,15 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
@@ -2792,15 +2815,15 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
@@ -2812,15 +2835,15 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G78"/>
       <c r="H78" t="s">
@@ -2832,15 +2855,15 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
@@ -2852,15 +2875,15 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
@@ -2872,15 +2895,15 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="s">
@@ -2892,15 +2915,15 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
@@ -2912,15 +2935,15 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
@@ -2932,15 +2955,15 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
@@ -2952,15 +2975,15 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
@@ -2972,15 +2995,15 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -2992,15 +3015,15 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
@@ -3012,15 +3035,15 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="s">
@@ -3032,15 +3055,15 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
@@ -3052,15 +3075,15 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="s">
@@ -3072,15 +3095,15 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
@@ -3092,15 +3115,15 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
@@ -3112,15 +3135,15 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
@@ -3132,15 +3155,15 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
@@ -3152,15 +3175,15 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
@@ -3172,15 +3195,15 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="s">
@@ -3192,15 +3215,15 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
@@ -3212,15 +3235,15 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G98"/>
       <c r="H98" t="s">
@@ -3232,15 +3255,15 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
@@ -3252,15 +3275,15 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="s">
@@ -3272,15 +3295,15 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G101"/>
       <c r="H101" t="s">
@@ -3292,15 +3315,15 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G102"/>
       <c r="H102" t="s">
@@ -3312,7 +3335,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C103">
         <v>1000</v>
@@ -3320,7 +3343,7 @@
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G103"/>
       <c r="H103" t="s">
@@ -3332,7 +3355,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C104">
         <v>1001</v>
@@ -3340,7 +3363,7 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G104"/>
       <c r="H104" t="s">
@@ -3352,7 +3375,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C105">
         <v>1002</v>
@@ -3360,7 +3383,7 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G105"/>
       <c r="H105" t="s">
@@ -3372,7 +3395,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C106">
         <v>1003</v>
@@ -3380,7 +3403,7 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G106"/>
       <c r="H106" t="s">
@@ -3392,7 +3415,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C107">
         <v>2000</v>
@@ -3400,7 +3423,7 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G107"/>
       <c r="H107" t="s">
@@ -3412,7 +3435,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C108">
         <v>2001</v>
@@ -3420,7 +3443,7 @@
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G108"/>
       <c r="H108" t="s">
@@ -3432,7 +3455,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -3440,7 +3463,7 @@
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G109"/>
       <c r="H109" t="s">
@@ -3452,7 +3475,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C110">
         <v>2003</v>
@@ -3460,7 +3483,7 @@
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G110"/>
       <c r="H110" t="s">
@@ -3472,7 +3495,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C111">
         <v>2004</v>
@@ -3480,7 +3503,7 @@
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G111"/>
       <c r="H111" t="s">
@@ -3492,7 +3515,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C112">
         <v>2005</v>
@@ -3500,7 +3523,7 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G112"/>
       <c r="H112" t="s">
@@ -3512,7 +3535,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C113">
         <v>2006</v>
@@ -3520,7 +3543,7 @@
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G113"/>
       <c r="H113" t="s">
@@ -3532,7 +3555,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C114">
         <v>2007</v>
@@ -3540,7 +3563,7 @@
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G114"/>
       <c r="H114" t="s">
@@ -3552,7 +3575,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C115">
         <v>2008</v>
@@ -3560,7 +3583,7 @@
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G115"/>
       <c r="H115" t="s">
@@ -3572,7 +3595,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C116">
         <v>2009</v>
@@ -3580,7 +3603,7 @@
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G116"/>
       <c r="H116" t="s">
@@ -3592,7 +3615,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C117">
         <v>2010</v>
@@ -3600,7 +3623,7 @@
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G117"/>
       <c r="H117" t="s">
@@ -3612,7 +3635,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C118">
         <v>2011</v>
@@ -3620,7 +3643,7 @@
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G118"/>
       <c r="H118" t="s">
@@ -3632,7 +3655,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -3640,7 +3663,7 @@
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G119"/>
       <c r="H119" t="s">
@@ -3652,7 +3675,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -3660,7 +3683,7 @@
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G120"/>
       <c r="H120" t="s">
@@ -3672,7 +3695,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -3680,7 +3703,7 @@
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G121"/>
       <c r="H121" t="s">
@@ -3692,7 +3715,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C122">
         <v>3000</v>
@@ -3700,7 +3723,7 @@
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G122"/>
       <c r="H122" t="s">
@@ -3712,13 +3735,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G123"/>
       <c r="H123" t="s">
@@ -3730,13 +3753,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G124"/>
       <c r="H124" t="s">
@@ -3748,13 +3771,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G125"/>
       <c r="H125" t="s">
@@ -3766,13 +3789,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G126"/>
       <c r="H126" t="s">
@@ -3784,13 +3807,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G127"/>
       <c r="H127" t="s">
@@ -3802,13 +3825,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G128"/>
       <c r="H128" t="s">
@@ -3820,13 +3843,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G129"/>
       <c r="H129" t="s">
@@ -3838,13 +3861,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G130"/>
       <c r="H130" t="s">
@@ -3856,13 +3879,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G131"/>
       <c r="H131" t="s">
@@ -3874,13 +3897,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G132"/>
       <c r="H132" t="s">
@@ -3892,13 +3915,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G133"/>
       <c r="H133" t="s">
@@ -3910,13 +3933,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G134"/>
       <c r="H134" t="s">
@@ -3928,13 +3951,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G135"/>
       <c r="H135" t="s">
@@ -3946,13 +3969,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G136"/>
       <c r="H136" t="s">
@@ -3964,13 +3987,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G137"/>
       <c r="H137" t="s">
@@ -3982,13 +4005,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G138"/>
       <c r="H138" t="s">
@@ -4000,13 +4023,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G139"/>
       <c r="H139" t="s">
@@ -4018,13 +4041,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G140"/>
       <c r="H140" t="s">
@@ -4036,13 +4059,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G141"/>
       <c r="H141" t="s">
@@ -4054,13 +4077,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G142"/>
       <c r="H142" t="s">
@@ -4072,13 +4095,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G143"/>
       <c r="H143" t="s">
@@ -4090,13 +4113,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G144"/>
       <c r="H144" t="s">
@@ -4108,13 +4131,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G145"/>
       <c r="H145" t="s">
@@ -4126,13 +4149,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G146"/>
       <c r="H146" t="s">
@@ -4144,13 +4167,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G147"/>
       <c r="H147" t="s">
@@ -4162,19 +4185,21 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148"/>
+        <v>73</v>
+      </c>
+      <c r="G148" t="s">
+        <v>97</v>
+      </c>
       <c r="H148" t="s">
         <v>15</v>
       </c>
@@ -4184,13 +4209,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G149"/>
       <c r="H149" t="s">
@@ -4202,13 +4227,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
       <c r="F150" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="s">
@@ -4220,13 +4245,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G151"/>
       <c r="H151" t="s">
@@ -4238,13 +4263,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
@@ -4256,13 +4281,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
@@ -4274,13 +4299,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G154"/>
       <c r="H154" t="s">
@@ -4292,13 +4317,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G155"/>
       <c r="H155" t="s">
@@ -4310,13 +4335,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
       <c r="F156" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G156"/>
       <c r="H156" t="s">
@@ -4328,13 +4353,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G157"/>
       <c r="H157" t="s">
@@ -4346,13 +4371,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G158"/>
       <c r="H158" t="s">
@@ -4364,13 +4389,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G159"/>
       <c r="H159" t="s">
@@ -4382,13 +4407,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G160"/>
       <c r="H160" t="s">
@@ -4400,13 +4425,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G161"/>
       <c r="H161" t="s">
@@ -4418,13 +4443,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G162"/>
       <c r="H162" t="s">
@@ -4436,13 +4461,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G163"/>
       <c r="H163" t="s">
@@ -4454,13 +4479,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G164"/>
       <c r="H164" t="s">
@@ -4472,13 +4497,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
       <c r="F165" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G165"/>
       <c r="H165" t="s">
@@ -4490,13 +4515,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G166"/>
       <c r="H166" t="s">
@@ -4508,13 +4533,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G167"/>
       <c r="H167" t="s">
@@ -4526,15 +4551,19 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C168">
         <v>123</v>
       </c>
-      <c r="D168"/>
-      <c r="E168"/>
+      <c r="D168" t="s">
+        <v>306</v>
+      </c>
+      <c r="E168" t="s">
+        <v>307</v>
+      </c>
       <c r="F168" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G168"/>
       <c r="H168" t="s">
@@ -4546,7 +4575,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C169">
         <v>1234</v>
@@ -4554,7 +4583,7 @@
       <c r="D169"/>
       <c r="E169"/>
       <c r="F169" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G169"/>
       <c r="H169" t="s">

--- a/assets/excel/Report DUK.xlsx
+++ b/assets/excel/Report DUK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>REPORT DUK</t>
   </si>
@@ -56,10 +56,7 @@
     <t>0000-00-00</t>
   </si>
   <si>
-    <t>S1/Universitas Ahmad Dahlan</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
+    <t>/</t>
   </si>
   <si>
     <t>Aktif</t>
@@ -71,105 +68,54 @@
     <t>2012.12.01.003</t>
   </si>
   <si>
-    <t>S2/Universitas Hatmoko</t>
-  </si>
-  <si>
-    <t>2011-06-21</t>
-  </si>
-  <si>
-    <t>Iwan Setiyawan/Bantul/2022-06-06</t>
+    <t>Iwan Setiyawan//</t>
   </si>
   <si>
     <t>2012.12.01.004</t>
   </si>
   <si>
-    <t>S1/UAD</t>
-  </si>
-  <si>
-    <t>2022-06-20</t>
-  </si>
-  <si>
     <t>Tri Wardaningtyas//</t>
   </si>
   <si>
     <t>2012.12.01.005</t>
   </si>
   <si>
-    <t>S1/UGM</t>
-  </si>
-  <si>
-    <t>1999-07-07</t>
-  </si>
-  <si>
     <t>Sudarsono//</t>
   </si>
   <si>
     <t>2012.12.01.006</t>
   </si>
   <si>
-    <t>S1/Universitas Hatmoko</t>
-  </si>
-  <si>
-    <t>2012-01-09</t>
-  </si>
-  <si>
     <t>Tri Bekti Rianto//</t>
   </si>
   <si>
     <t>2012.12.01.008</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Samiran//</t>
   </si>
   <si>
     <t>2012.12.01.009</t>
   </si>
   <si>
-    <t>SMP/SLTP N 1</t>
-  </si>
-  <si>
-    <t>1966-07-14</t>
-  </si>
-  <si>
     <t>Edy Rusmanto//</t>
   </si>
   <si>
     <t>2012.12.01.010</t>
   </si>
   <si>
-    <t>SMK/SMK N 1</t>
-  </si>
-  <si>
-    <t>1998-01-13</t>
-  </si>
-  <si>
     <t>Roni Slamet//</t>
   </si>
   <si>
     <t>2012.12.01.011</t>
   </si>
   <si>
-    <t>DIII/UIN</t>
-  </si>
-  <si>
-    <t>2010-02-02</t>
-  </si>
-  <si>
     <t>Ihsanuddin//</t>
   </si>
   <si>
     <t>2012.12.01.012</t>
   </si>
   <si>
-    <t>DIII/UINA</t>
-  </si>
-  <si>
-    <t>2007-07-24</t>
-  </si>
-  <si>
     <t>Sukirman//</t>
   </si>
   <si>
@@ -182,48 +128,24 @@
     <t>2012.12.01.014</t>
   </si>
   <si>
-    <t>DIII/Ujayana</t>
-  </si>
-  <si>
-    <t>2003-03-12</t>
-  </si>
-  <si>
     <t>Rudi Riswanto//</t>
   </si>
   <si>
     <t>2012.12.01.015</t>
   </si>
   <si>
-    <t>S1/Airlangga Satria</t>
-  </si>
-  <si>
-    <t>2014-03-12</t>
-  </si>
-  <si>
     <t>Maryono//</t>
   </si>
   <si>
     <t>2012.12.01.016</t>
   </si>
   <si>
-    <t>S1/Udayana</t>
-  </si>
-  <si>
-    <t>2011-03-16</t>
-  </si>
-  <si>
     <t>Muryanto//</t>
   </si>
   <si>
     <t>2012.12.01.017</t>
   </si>
   <si>
-    <t>SMA/SMA N 7 Bandung</t>
-  </si>
-  <si>
-    <t>1997-06-17</t>
-  </si>
-  <si>
     <t>Heri Susanto//</t>
   </si>
   <si>
@@ -236,12 +158,6 @@
     <t>2012.12.01.019</t>
   </si>
   <si>
-    <t>DIII/UNY</t>
-  </si>
-  <si>
-    <t>2022-06-08</t>
-  </si>
-  <si>
     <t>Aristiyo Budi//</t>
   </si>
   <si>
@@ -308,9 +224,6 @@
     <t>2012.12.04.037</t>
   </si>
   <si>
-    <t>2022-06-22</t>
-  </si>
-  <si>
     <t>Ihsan Zulkarnain//</t>
   </si>
   <si>
@@ -875,9 +788,6 @@
     <t>Ihsan Firdaus//</t>
   </si>
   <si>
-    <t>Administrasi Personalia</t>
-  </si>
-  <si>
     <t>Arimbi Himsa L//</t>
   </si>
   <si>
@@ -933,15 +843,6 @@
   </si>
   <si>
     <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>ratnasari/Darit/2001-08-09</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1178,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,11 +1236,9 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G4"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1347,21 +1246,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5"/>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1369,21 +1266,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6"/>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1391,21 +1286,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1413,21 +1306,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8"/>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1435,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1455,21 +1346,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10"/>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1477,21 +1366,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11"/>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1499,21 +1386,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12"/>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1521,21 +1406,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13"/>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1543,19 +1426,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1563,21 +1446,19 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15"/>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1585,21 +1466,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16"/>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1607,21 +1486,19 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1629,21 +1506,19 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18"/>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1651,19 +1526,19 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1671,21 +1546,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1693,19 +1566,19 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1713,19 +1586,19 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1733,19 +1606,19 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1753,19 +1626,19 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1773,19 +1646,19 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1793,19 +1666,19 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1813,19 +1686,19 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1833,19 +1706,19 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1853,19 +1726,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1873,19 +1746,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1893,21 +1766,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31"/>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1915,19 +1786,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1935,19 +1806,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1955,19 +1826,19 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1975,19 +1846,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1995,19 +1866,19 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2015,19 +1886,19 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2035,19 +1906,19 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2055,19 +1926,19 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2075,19 +1946,19 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2095,19 +1966,19 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2115,19 +1986,19 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2135,19 +2006,19 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2155,19 +2026,19 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2175,19 +2046,19 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2195,19 +2066,19 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2215,19 +2086,19 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G47"/>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2235,19 +2106,19 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2255,19 +2126,19 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2275,19 +2146,19 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G50"/>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2295,19 +2166,19 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G51"/>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2315,19 +2186,19 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G52"/>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2335,19 +2206,19 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G53"/>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2355,19 +2226,19 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2375,19 +2246,19 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2395,19 +2266,19 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2415,19 +2286,19 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2435,19 +2306,19 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2455,19 +2326,19 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2475,19 +2346,19 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2495,19 +2366,19 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2515,19 +2386,19 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2535,19 +2406,19 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2555,19 +2426,19 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2575,19 +2446,19 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2595,19 +2466,19 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2615,19 +2486,19 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2635,19 +2506,19 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G68"/>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2655,19 +2526,19 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2675,19 +2546,19 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2695,19 +2566,19 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2715,19 +2586,19 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2735,19 +2606,19 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2755,19 +2626,19 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2775,19 +2646,19 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2795,19 +2666,19 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2815,19 +2686,19 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2835,19 +2706,19 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G78"/>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2855,19 +2726,19 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2875,19 +2746,19 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2895,19 +2766,19 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2915,19 +2786,19 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2935,19 +2806,19 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2955,19 +2826,19 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2975,19 +2846,19 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2995,19 +2866,19 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3015,19 +2886,19 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3035,19 +2906,19 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3055,19 +2926,19 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3075,19 +2946,19 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3095,19 +2966,19 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3115,19 +2986,19 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3135,19 +3006,19 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3155,19 +3026,19 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3175,19 +3046,19 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3195,19 +3066,19 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3215,19 +3086,19 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3235,19 +3106,19 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G98"/>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3255,19 +3126,19 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3275,19 +3146,19 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3295,19 +3166,19 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G101"/>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3315,19 +3186,19 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G102"/>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3335,7 +3206,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C103">
         <v>1000</v>
@@ -3343,11 +3214,11 @@
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G103"/>
       <c r="H103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3355,7 +3226,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C104">
         <v>1001</v>
@@ -3363,11 +3234,11 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G104"/>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3375,7 +3246,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C105">
         <v>1002</v>
@@ -3383,11 +3254,11 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G105"/>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3395,7 +3266,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C106">
         <v>1003</v>
@@ -3403,11 +3274,11 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G106"/>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3415,7 +3286,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C107">
         <v>2000</v>
@@ -3423,11 +3294,11 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G107"/>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3435,7 +3306,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C108">
         <v>2001</v>
@@ -3443,11 +3314,11 @@
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G108"/>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3455,7 +3326,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -3463,11 +3334,11 @@
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G109"/>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3475,7 +3346,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C110">
         <v>2003</v>
@@ -3483,11 +3354,11 @@
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G110"/>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3495,7 +3366,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C111">
         <v>2004</v>
@@ -3503,11 +3374,11 @@
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G111"/>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3515,7 +3386,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C112">
         <v>2005</v>
@@ -3523,11 +3394,11 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G112"/>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3535,7 +3406,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C113">
         <v>2006</v>
@@ -3543,11 +3414,11 @@
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G113"/>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3555,7 +3426,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C114">
         <v>2007</v>
@@ -3563,11 +3434,11 @@
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G114"/>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3575,7 +3446,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C115">
         <v>2008</v>
@@ -3583,11 +3454,11 @@
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G115"/>
       <c r="H115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3595,7 +3466,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C116">
         <v>2009</v>
@@ -3603,11 +3474,11 @@
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G116"/>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3615,7 +3486,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C117">
         <v>2010</v>
@@ -3623,11 +3494,11 @@
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G117"/>
       <c r="H117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3635,7 +3506,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C118">
         <v>2011</v>
@@ -3643,11 +3514,11 @@
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G118"/>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3655,7 +3526,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -3663,11 +3534,11 @@
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G119"/>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3675,7 +3546,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -3683,11 +3554,11 @@
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G120"/>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3695,7 +3566,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -3703,11 +3574,11 @@
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G121"/>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3715,7 +3586,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C122">
         <v>3000</v>
@@ -3723,11 +3594,11 @@
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G122"/>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3735,17 +3606,17 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G123"/>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3753,17 +3624,17 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G124"/>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3771,17 +3642,17 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G125"/>
       <c r="H125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3789,17 +3660,17 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G126"/>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3807,17 +3678,17 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G127"/>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3825,17 +3696,17 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G128"/>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3843,17 +3714,17 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G129"/>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3861,17 +3732,17 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G130"/>
       <c r="H130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3879,17 +3750,17 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G131"/>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3897,17 +3768,17 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G132"/>
       <c r="H132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3915,17 +3786,17 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G133"/>
       <c r="H133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3933,17 +3804,17 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G134"/>
       <c r="H134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3951,17 +3822,17 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G135"/>
       <c r="H135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3969,17 +3840,17 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G136"/>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3987,17 +3858,17 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G137"/>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4005,17 +3876,17 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G138"/>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4023,17 +3894,17 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G139"/>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4041,17 +3912,17 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G140"/>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4059,17 +3930,17 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G141"/>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4077,17 +3948,17 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G142"/>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4095,17 +3966,17 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G143"/>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4113,17 +3984,17 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G144"/>
       <c r="H144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4131,17 +4002,17 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G145"/>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4149,17 +4020,17 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G146"/>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4167,17 +4038,17 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G147"/>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4185,23 +4056,17 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C148"/>
-      <c r="D148" t="s">
-        <v>286</v>
-      </c>
-      <c r="E148" t="s">
-        <v>12</v>
-      </c>
+      <c r="D148"/>
+      <c r="E148"/>
       <c r="F148" t="s">
-        <v>73</v>
-      </c>
-      <c r="G148" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148"/>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4209,17 +4074,17 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G149"/>
       <c r="H149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4227,17 +4092,17 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4245,17 +4110,17 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G151"/>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4263,17 +4128,17 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4281,17 +4146,17 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4299,17 +4164,17 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G154"/>
       <c r="H154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4317,17 +4182,17 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G155"/>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4335,17 +4200,17 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G156"/>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4353,17 +4218,17 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G157"/>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4371,17 +4236,17 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G158"/>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4389,17 +4254,17 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G159"/>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4407,17 +4272,17 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G160"/>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4425,17 +4290,17 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G161"/>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4443,17 +4308,17 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G162"/>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4461,17 +4326,17 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G163"/>
       <c r="H163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4479,17 +4344,17 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G164"/>
       <c r="H164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4497,17 +4362,17 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G165"/>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4515,17 +4380,17 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G166"/>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4533,17 +4398,17 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G167"/>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4551,43 +4416,19 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="C168">
-        <v>123</v>
-      </c>
-      <c r="D168" t="s">
-        <v>306</v>
-      </c>
-      <c r="E168" t="s">
-        <v>307</v>
-      </c>
+        <v>9535253</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168"/>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G168"/>
       <c r="H168" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>308</v>
-      </c>
-      <c r="C169">
-        <v>1234</v>
-      </c>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169" t="s">
-        <v>34</v>
-      </c>
-      <c r="G169"/>
-      <c r="H169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report DUK.xlsx
+++ b/assets/excel/Report DUK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>REPORT DUK</t>
   </si>
@@ -843,6 +843,15 @@
   </si>
   <si>
     <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>S3/Oxford University</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
   </si>
 </sst>
 </file>
@@ -4421,12 +4430,18 @@
       <c r="C168">
         <v>9535253</v>
       </c>
-      <c r="D168"/>
-      <c r="E168"/>
+      <c r="D168" t="s">
+        <v>276</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
+      </c>
       <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168"/>
+        <v>277</v>
+      </c>
+      <c r="G168" t="s">
+        <v>278</v>
+      </c>
       <c r="H168" t="s">
         <v>14</v>
       </c>
